--- a/result/preprocessed_from_tokopedia.xlsx
+++ b/result/preprocessed_from_tokopedia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D***a</t>
+          <t>Taufik</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cukup yang mau game pakai sens rendah halus licin tapi kontrol dapat tebal</t>
+          <t>selalu beli laptop nvidia geforce laptop selalu aman laptop sampai tuju lecet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,29 +470,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>a***n</t>
+          <t>J***s</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ukur pas material yang cakep seperti mousepad umum harga jangkau bilang</t>
+          <t>layan baik banyak bonus nyata terima kasih</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Aripin</t>
+          <t>N***l</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>barang sesuai ekspektasi seler responsif courier ada masalah</t>
+          <t>barang dengan packing aman mulus di cek tes devicenya jalan normal moga awet tingal aktif ofice home student</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -504,372 +504,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D***e</t>
+          <t>D***o</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sat set psen kemarin bsknya langsung sampai depan rumah hasil gambar bagus tipis anti slip juga cukup tebal jadi engak suka geser loks kualitas cukup oke cuman beberapa jaitan warna kayak luntur koreksi kalo salah yang saya khawatir kalo kringetan bakal merusak wrnanya satu lagi isi paket ada smpah</t>
+          <t>layan cepat kirim tepat waktu moga awet terima kasih bonus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>d****</t>
+          <t>p***z</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mantap lah tebal ok ukur sesuai motif jernih kalau buat forma kayak sih belum coba buat game</t>
+          <t>bad service jadi malas ken beli produk lain toko ini engak dibatalin padahal mau beli laptop yang lebih bagus gara gara kata sudah kirim padahal resi cetak baru lusa sore aduh kurang akurat sekali informasi jadi jangan mudah beli toko ini not recomended mana barang masalah kemas cuma pakai buble tipis aduh bagaimana sih yang benar saja kecewa berat spek kaleng jual harga langit</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Abie</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>barang ok bagus kirim cepat recomended</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>F***e</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>kualitas kerja bagus bahan bagus rakit bagus barang tapi yang nya warna hitam bukan yang putih</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>M***h</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>mousepad nya sangat nyaman pakai bahan halus cetak tajam mantap banget terima kasih kak</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>I***a</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>bahan barang nya bagus benar karena kirim lama jadi kayak bekas leku jujur jujuran saja ya seperti video packingnya cuman kardus dari kualitas barang nya bagus kok minus cuman saja</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>T***h</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>kualitas bagus buat harga motif bagus tebal enak buat setup</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>irsyad</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>bagus banget plis bahan engak keset licin tebal jahit rapi warnya real sama kayak foto produk worth itu</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>R***w</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>bahan bagus responsif tidak cacat jahit alhamdulilah barang dengan selamat bagus minus saya saja nabung buat rakit pc bantu di ain min cepat kebel pc nya</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>T***c</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>quality of work bagus material enak buat mouse</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Ida</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ukur sesuai bahan material baik cukup halus mouse luncur lancar atas</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Rey</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>proses cepat bahan bagus engak licin sesuai harga mantap</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>R***p</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>bahan bau tajam jadi timbang jahit kurang rapi itu motif desain lain bagus sesuai harga</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>L***u</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>bahan adem tebal bagus engak licin engak terlalu keset juga oke buat mousenya minus nya bahan bawah nya kurang keset jadi suka geser deskmat nya minus pingir lengkung memang paket gulung jadi pingir susah buat lurus lagi butuh waktu overal oke murah sih</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Samet</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>kualitas mousepad sangat bagus tebal gambar rapi jelas sangat recomend</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>N***p</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>overal bahan oke bagus designya keren yang kecewain sat teliti noda biru sekitar warna putih saja keluh saya</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>K***y</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>bahan halus tebal barang bagus halus licin buat mouse mantap deh</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>R***a</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>kualitas nya mantap muka nya halus licin anti slip</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Alice</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>lumayan nih gaes pas kena flash sale engak sampai rb bahan lumayan baik cukup rapi jangan banding yang atas seratus ribu ya ini bagus lah proses cepat langsung dikitim kurir sat set lumayan buat ganti suasana setup trimakasih ya</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Ardie</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>paket aman banget mousepadnya bagus banget padahal murah walaupun mis paint dikit engak apaapa soal harga murah banget terus bahan mousepadnya tebel</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>X***f</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>bahan bagus kayak lebih tipe sped agak licin jahit pingir rapi kualitas gambar bagus tidak blur warna gambar wash out kurang pekat warna entah memang warna asli designya ini engak deskmat harga under k sudah oke</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>P***r</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>bahan lumayan buat harga segitu ada sedikit luntur noda biru kecil</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
